--- a/Design/전투 기획서/리소스_LIST_0713.xlsx
+++ b/Design/전투 기획서/리소스_LIST_0713.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\채결사\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\전투 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86083340-7106-430D-917E-9169877B0319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B19AF2-EDDA-4C51-8B27-DCEE03795C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{007B8EB6-93C4-45A7-B563-A130D01E9377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{007B8EB6-93C4-45A7-B563-A130D01E9377}"/>
   </bookViews>
   <sheets>
     <sheet name="리소스LIST" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>필요 리소스 LIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>알 깨지는 이펙트 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>moveL</t>
+  </si>
+  <si>
+    <t>moveR</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,102 +580,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E917C09-9AE2-4B9E-B6E7-6F51F1080E8F}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,40 +1019,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1048,12 +1060,12 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1061,113 +1073,113 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -1175,10 +1187,10 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="16"/>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1186,217 +1198,267 @@
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="12" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="19"/>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="2" t="s">
+      <c r="D39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A24:A42"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B18:B23"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B18:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
